--- a/assets/ex4credit.xlsx
+++ b/assets/ex4credit.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="A1:T12"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
